--- a/sw/doc/Mega Port Registers.xlsx
+++ b/sw/doc/Mega Port Registers.xlsx
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,13 +896,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>86</v>
@@ -913,13 +913,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>86</v>
@@ -930,13 +930,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>86</v>
@@ -947,13 +947,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>86</v>
@@ -964,13 +964,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>86</v>
@@ -981,13 +981,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>86</v>
@@ -998,13 +998,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
@@ -1015,13 +1015,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>86</v>
@@ -1032,13 +1032,13 @@
         <v>41</v>
       </c>
       <c r="B18" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C18" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>86</v>
@@ -1049,13 +1049,13 @@
         <v>41</v>
       </c>
       <c r="B19" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>86</v>
@@ -1066,13 +1066,13 @@
         <v>41</v>
       </c>
       <c r="B20" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>86</v>
@@ -1083,13 +1083,13 @@
         <v>41</v>
       </c>
       <c r="B21" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>86</v>
@@ -1100,13 +1100,13 @@
         <v>41</v>
       </c>
       <c r="B22" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>86</v>
@@ -1117,13 +1117,13 @@
         <v>41</v>
       </c>
       <c r="B23" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>86</v>
@@ -1134,13 +1134,13 @@
         <v>41</v>
       </c>
       <c r="B24" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>86</v>
@@ -1151,13 +1151,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>86</v>
@@ -1168,13 +1168,13 @@
         <v>27</v>
       </c>
       <c r="B26" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>86</v>
@@ -1185,13 +1185,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>86</v>
@@ -1202,13 +1202,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>86</v>
@@ -1219,13 +1219,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>86</v>
@@ -1287,13 +1287,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>87</v>
@@ -1304,13 +1304,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>87</v>
@@ -1321,13 +1321,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="12">
+        <v>5</v>
+      </c>
+      <c r="C35" s="12">
         <v>3</v>
       </c>
-      <c r="C35" s="12">
-        <v>5</v>
-      </c>
       <c r="D35" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>87</v>
@@ -1470,20 +1470,20 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="14">
-        <v>5</v>
-      </c>
-      <c r="C44" s="14">
-        <v>4</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>87</v>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>41</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1491,13 +1491,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>86</v>
@@ -1508,33 +1508,33 @@
         <v>9</v>
       </c>
       <c r="B46" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="7">
-        <v>0</v>
-      </c>
-      <c r="C47" s="7">
-        <v>41</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>86</v>
+      <c r="B47" s="14">
+        <v>5</v>
+      </c>
+      <c r="C47" s="14">
+        <v>4</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1542,13 +1542,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C48" s="8">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>86</v>
@@ -1559,13 +1559,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49" s="8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>86</v>
@@ -1576,13 +1576,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>86</v>
@@ -1593,13 +1593,13 @@
         <v>12</v>
       </c>
       <c r="B51" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>86</v>
@@ -1610,13 +1610,13 @@
         <v>12</v>
       </c>
       <c r="B52" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>86</v>
@@ -1627,13 +1627,13 @@
         <v>12</v>
       </c>
       <c r="B53" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C53" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>86</v>
@@ -1644,13 +1644,13 @@
         <v>22</v>
       </c>
       <c r="B54" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>86</v>
@@ -1661,13 +1661,13 @@
         <v>22</v>
       </c>
       <c r="B55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>86</v>
@@ -1814,13 +1814,13 @@
         <v>54</v>
       </c>
       <c r="B64" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C64" s="11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>86</v>
@@ -1831,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="B65" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65" s="11">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>86</v>
@@ -1848,13 +1848,13 @@
         <v>54</v>
       </c>
       <c r="B66" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C66" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>86</v>
@@ -1865,13 +1865,13 @@
         <v>54</v>
       </c>
       <c r="B67" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>86</v>
@@ -1882,13 +1882,13 @@
         <v>54</v>
       </c>
       <c r="B68" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>86</v>
@@ -1899,13 +1899,13 @@
         <v>54</v>
       </c>
       <c r="B69" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C69" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>86</v>
@@ -1916,13 +1916,13 @@
         <v>54</v>
       </c>
       <c r="B70" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C70" s="11">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>86</v>
@@ -1933,13 +1933,13 @@
         <v>54</v>
       </c>
       <c r="B71" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C71" s="11">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>86</v>
@@ -1952,7 +1952,8 @@
     </sortState>
   </autoFilter>
   <sortState ref="A2:E71">
-    <sortCondition ref="C2:C71"/>
+    <sortCondition ref="A2:A71"/>
+    <sortCondition ref="B2:B71"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
